--- a/Complete-spreadsheets/EC/Fp2-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/Fp2-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A9BA3-6AD2-4BDA-A55A-BB0CDBDD9B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0616D552-389E-40A5-B290-7BBDC80CF79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>17.606689762272168</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.2579501840670062</v>
-      </c>
-      <c r="D2" s="3">
-        <v>9.4851571208813059</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.4380005502492978</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.829534190037561</v>
+      <c r="B2" s="4">
+        <v>21.02303056732416</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2837569614106172</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.313756774137139</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.929484636118632</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5518929597318269</v>
       </c>
       <c r="G2">
-        <v>36.617331807507341</v>
+        <v>34.101921898722367</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>8.8329868238128331</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.5122076353828042</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.7003442584320334</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.912298484642414</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.9020653358209241</v>
+      <c r="B3" s="4">
+        <v>29.442891182723461</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.0288659616282434</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.2691915450808908</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.88245292318308</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7572352844871602</v>
       </c>
       <c r="G3">
-        <v>25.859902538090999</v>
+        <v>49.380636897102832</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -572,23 +572,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>16.758807962675</v>
-      </c>
-      <c r="C4" s="3">
-        <v>11.14700057531293</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9.6208501482074116</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.7789826661302008</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.9890552852700141</v>
+      <c r="B4" s="4">
+        <v>13.975429707910219</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14.711864501636329</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.6678847368746328</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.62389092852179</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.8081580760990978</v>
       </c>
       <c r="G4">
-        <v>42.29469663759555</v>
+        <v>37.78722795104207</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -610,23 +610,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>21.766712427253491</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15.51321796605084</v>
-      </c>
-      <c r="D5" s="3">
-        <v>17.390447187576999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.1711411261754479</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.2550466214231788</v>
+      <c r="B5" s="4">
+        <v>152.7899273863496</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.06744178172691</v>
+      </c>
+      <c r="D5" s="4">
+        <v>13.55811056312641</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.5456378037384484</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.9727616575298108</v>
       </c>
       <c r="G5">
-        <v>60.096565328479947</v>
+        <v>198.93387919247121</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -648,23 +648,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>32.346328880581737</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10.390728956484541</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.411507745651293</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.6765653536119691</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.4967556655091672</v>
+      <c r="B6" s="4">
+        <v>67.80613173120544</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16.79524660106183</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40.420467945742487</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.2046161716202084</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.0139344190735389</v>
       </c>
       <c r="G6">
-        <v>55.321886601838713</v>
+        <v>132.2403968687035</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>21.02303056732416</v>
+        <v>22.30427000933074</v>
       </c>
       <c r="C7" s="4">
-        <v>4.2837569614106172</v>
+        <v>12.29713870608461</v>
       </c>
       <c r="D7" s="4">
-        <v>3.313756774137139</v>
+        <v>50.256101911389578</v>
       </c>
       <c r="E7" s="4">
-        <v>2.929484636118632</v>
+        <v>5.714799351398999</v>
       </c>
       <c r="F7" s="4">
-        <v>2.5518929597318269</v>
+        <v>3.0979186296957768</v>
       </c>
       <c r="G7">
-        <v>34.101921898722367</v>
+        <v>93.670228607899688</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -724,23 +724,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>85.158604490631063</v>
-      </c>
-      <c r="C8" s="3">
-        <v>17.65153890107695</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.0639940003448629</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5.3745349397215367</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.5849556550062109</v>
+      <c r="B8" s="4">
+        <v>24.41882702885913</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.0664152751749336</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.666422108012906</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5467785546250101</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.1303492769461712</v>
       </c>
       <c r="G8">
-        <v>113.8336279867806</v>
+        <v>40.828792243618153</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>29.442891182723461</v>
+        <v>10.306711086579559</v>
       </c>
       <c r="C9" s="4">
-        <v>7.0288659616282434</v>
+        <v>6.671501035990234</v>
       </c>
       <c r="D9" s="4">
-        <v>7.2691915450808908</v>
+        <v>6.0172686301578624</v>
       </c>
       <c r="E9" s="4">
-        <v>2.88245292318308</v>
+        <v>3.0778830977435918</v>
       </c>
       <c r="F9" s="4">
-        <v>2.7572352844871602</v>
+        <v>3.4997623185160651</v>
       </c>
       <c r="G9">
-        <v>49.380636897102832</v>
+        <v>29.573126168987312</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -801,22 +801,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>13.975429707910219</v>
+        <v>190.87900201766931</v>
       </c>
       <c r="C10" s="4">
-        <v>14.711864501636329</v>
+        <v>11.799465402409609</v>
       </c>
       <c r="D10" s="4">
-        <v>3.6678847368746328</v>
+        <v>10.36268598812943</v>
       </c>
       <c r="E10" s="4">
-        <v>2.62389092852179</v>
+        <v>3.5026512284913021</v>
       </c>
       <c r="F10" s="4">
-        <v>2.8081580760990978</v>
+        <v>4.0903516730178344</v>
       </c>
       <c r="G10">
-        <v>37.78722795104207</v>
+        <v>220.63415630971741</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>152.7899273863496</v>
+        <v>13.41803273474776</v>
       </c>
       <c r="C11" s="4">
-        <v>25.06744178172691</v>
+        <v>25.52474355031929</v>
       </c>
       <c r="D11" s="4">
-        <v>13.55811056312641</v>
+        <v>23.76937655371567</v>
       </c>
       <c r="E11" s="4">
-        <v>4.5456378037384484</v>
+        <v>4.8845474709753196</v>
       </c>
       <c r="F11" s="4">
-        <v>2.9727616575298108</v>
+        <v>4.1126546338644374</v>
       </c>
       <c r="G11">
-        <v>198.93387919247121</v>
+        <v>71.709354943622486</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>67.80613173120544</v>
+        <v>517.88638661510618</v>
       </c>
       <c r="C12" s="4">
-        <v>16.79524660106183</v>
+        <v>37.811215398327263</v>
       </c>
       <c r="D12" s="4">
-        <v>40.420467945742487</v>
+        <v>11.63586428705926</v>
       </c>
       <c r="E12" s="4">
-        <v>4.2046161716202084</v>
+        <v>5.2388040414136769</v>
       </c>
       <c r="F12" s="4">
-        <v>3.0139344190735389</v>
+        <v>4.1854174743416266</v>
       </c>
       <c r="G12">
-        <v>132.2403968687035</v>
+        <v>576.75768781624799</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -917,23 +917,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>22.742066915105688</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12.347046364206561</v>
-      </c>
-      <c r="D13" s="3">
-        <v>36.263742991154707</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.5846228731881737</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.0449749695510659</v>
+      <c r="B13" s="4">
+        <v>98.394014425923842</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10.269826273971191</v>
+      </c>
+      <c r="D13" s="4">
+        <v>23.994811741258541</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.0633091027343573</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.2538337115409304</v>
       </c>
       <c r="G13">
-        <v>83.982454113206202</v>
+        <v>141.97579525542889</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -956,22 +956,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>22.30427000933074</v>
+        <v>36.949787936586247</v>
       </c>
       <c r="C14" s="4">
-        <v>12.29713870608461</v>
+        <v>34.393598104993231</v>
       </c>
       <c r="D14" s="4">
-        <v>50.256101911389578</v>
+        <v>9.446143617977059</v>
       </c>
       <c r="E14" s="4">
-        <v>5.714799351398999</v>
+        <v>4.1955824782794764</v>
       </c>
       <c r="F14" s="4">
-        <v>3.0979186296957768</v>
+        <v>4.7368143152980426</v>
       </c>
       <c r="G14">
-        <v>93.670228607899688</v>
+        <v>89.721926453134046</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -994,22 +994,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>24.41882702885913</v>
+        <v>83.04189990419215</v>
       </c>
       <c r="C15" s="4">
-        <v>6.0664152751749336</v>
+        <v>17.39229385258869</v>
       </c>
       <c r="D15" s="4">
-        <v>4.666422108012906</v>
+        <v>50.167576773811021</v>
       </c>
       <c r="E15" s="4">
-        <v>2.5467785546250101</v>
+        <v>7.9364112621967564</v>
       </c>
       <c r="F15" s="4">
-        <v>3.1303492769461712</v>
+        <v>4.8418354166783093</v>
       </c>
       <c r="G15">
-        <v>40.828792243618153</v>
+        <v>163.3800172094669</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1031,23 +1031,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>21.515005251863489</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.255831550735242</v>
-      </c>
-      <c r="D16" s="3">
-        <v>13.09636680575912</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.4698429005733598</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3.3145115030643781</v>
+      <c r="B16" s="4">
+        <v>47.652399064768893</v>
+      </c>
+      <c r="C16" s="4">
+        <v>23.675378400347089</v>
+      </c>
+      <c r="D16" s="4">
+        <v>31.030182383064862</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.8184601383725694</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.5038503214022656</v>
       </c>
       <c r="G16">
-        <v>50.651558011995597</v>
+        <v>112.68027030795569</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1070,22 +1070,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>10.306711086579559</v>
+        <v>18.040036227670001</v>
       </c>
       <c r="C17" s="4">
-        <v>6.671501035990234</v>
+        <v>46.406052018667012</v>
       </c>
       <c r="D17" s="4">
-        <v>6.0172686301578624</v>
+        <v>18.678188724228949</v>
       </c>
       <c r="E17" s="4">
-        <v>3.0778830977435918</v>
+        <v>4.1654475453916042</v>
       </c>
       <c r="F17" s="4">
-        <v>3.4997623185160651</v>
+        <v>5.5767867500979289</v>
       </c>
       <c r="G17">
-        <v>29.573126168987312</v>
+        <v>92.866511266055511</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1107,23 +1107,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>34.56137759320103</v>
-      </c>
-      <c r="C18" s="3">
-        <v>14.01878518859516</v>
-      </c>
-      <c r="D18" s="3">
-        <v>11.644639249305801</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.0798304903645999</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3.5966438863464072</v>
+      <c r="B18" s="4">
+        <v>16.761593838906261</v>
+      </c>
+      <c r="C18" s="4">
+        <v>36.934497920327892</v>
+      </c>
+      <c r="D18" s="4">
+        <v>29.253545568080259</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.4497862898445426</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.2491550074361459</v>
       </c>
       <c r="G18">
-        <v>67.901276407812986</v>
+        <v>96.648578624595075</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>26</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1145,23 +1145,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>9.9165021593867522</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.6289087079053717</v>
-      </c>
-      <c r="D19" s="3">
-        <v>14.14269798180972</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.5012331309169191</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3.6354393844863351</v>
+      <c r="B19" s="4">
+        <v>217.83327354159121</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14.19289626770852</v>
+      </c>
+      <c r="D19" s="4">
+        <v>11.67421737145585</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.7664231802713886</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.062339008791982</v>
       </c>
       <c r="G19">
-        <v>40.824781364505093</v>
+        <v>260.52914936981892</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1183,23 +1183,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>256.48442721149371</v>
-      </c>
-      <c r="C20" s="3">
-        <v>55.153414799175067</v>
-      </c>
-      <c r="D20" s="3">
-        <v>15.17508137375766</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6.9085209529379066</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3.9641233324522349</v>
+      <c r="B20" s="4">
+        <v>213.3521899589015</v>
+      </c>
+      <c r="C20" s="4">
+        <v>104.4585355140411</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11.11100221559164</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6.4851855201035331</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.57784665118829</v>
       </c>
       <c r="G20">
-        <v>337.68556766981658</v>
+        <v>343.984759859826</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>190.87900201766931</v>
+        <v>17.53408841840232</v>
       </c>
       <c r="C21" s="4">
-        <v>11.799465402409609</v>
+        <v>40.611154434982041</v>
       </c>
       <c r="D21" s="4">
-        <v>10.36268598812943</v>
+        <v>22.665615505520961</v>
       </c>
       <c r="E21" s="4">
-        <v>3.5026512284913021</v>
+        <v>9.5496540522597773</v>
       </c>
       <c r="F21" s="4">
-        <v>4.0903516730178344</v>
+        <v>13.204969666219821</v>
       </c>
       <c r="G21">
-        <v>220.63415630971741</v>
+        <v>103.5654820773849</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>13.41803273474776</v>
+        <v>18.38945522608844</v>
       </c>
       <c r="C22" s="4">
-        <v>25.52474355031929</v>
+        <v>46.024821552352833</v>
       </c>
       <c r="D22" s="4">
-        <v>23.76937655371567</v>
+        <v>22.61379643229672</v>
       </c>
       <c r="E22" s="4">
-        <v>4.8845474709753196</v>
+        <v>9.2596153075893675</v>
       </c>
       <c r="F22" s="4">
-        <v>4.1126546338644374</v>
+        <v>14.105369130528571</v>
       </c>
       <c r="G22">
-        <v>71.709354943622486</v>
+        <v>110.3930576488559</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1298,22 +1298,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>517.88638661510618</v>
+        <v>6621.1684965510012</v>
       </c>
       <c r="C23" s="4">
-        <v>37.811215398327263</v>
+        <v>256.28628152110463</v>
       </c>
       <c r="D23" s="4">
-        <v>11.63586428705926</v>
+        <v>295.58096548823471</v>
       </c>
       <c r="E23" s="4">
-        <v>5.2388040414136769</v>
+        <v>283.78510497621818</v>
       </c>
       <c r="F23" s="4">
-        <v>4.1854174743416266</v>
+        <v>138.90220440971899</v>
       </c>
       <c r="G23">
-        <v>576.75768781624799</v>
+        <v>7595.7230529462804</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1335,23 +1335,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>98.394014425923842</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10.269826273971191</v>
-      </c>
-      <c r="D24" s="4">
-        <v>23.994811741258541</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5.0633091027343573</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.2538337115409304</v>
+      <c r="B24" s="3">
+        <v>17.606689762272168</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4.2579501840670062</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.4851571208813059</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.4380005502492978</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.829534190037561</v>
       </c>
       <c r="G24">
-        <v>141.97579525542889</v>
+        <v>36.617331807507341</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1373,23 +1373,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>36.949787936586247</v>
-      </c>
-      <c r="C25" s="4">
-        <v>34.393598104993231</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.446143617977059</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4.1955824782794764</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.7368143152980426</v>
+      <c r="B25" s="3">
+        <v>8.8329868238128331</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.5122076353828042</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.7003442584320334</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.912298484642414</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.9020653358209241</v>
       </c>
       <c r="G25">
-        <v>89.721926453134046</v>
+        <v>25.859902538090999</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -1411,23 +1411,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>83.04189990419215</v>
-      </c>
-      <c r="C26" s="4">
-        <v>17.39229385258869</v>
-      </c>
-      <c r="D26" s="4">
-        <v>50.167576773811021</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7.9364112621967564</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4.8418354166783093</v>
+      <c r="B26" s="3">
+        <v>16.758807962675</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11.14700057531293</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.6208501482074116</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.7789826661302008</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.9890552852700141</v>
       </c>
       <c r="G26">
-        <v>163.3800172094669</v>
+        <v>42.29469663759555</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1450,22 +1450,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>203.09248334509439</v>
+        <v>21.766712427253491</v>
       </c>
       <c r="C27" s="3">
-        <v>8.1168008753453282</v>
+        <v>15.51321796605084</v>
       </c>
       <c r="D27" s="3">
-        <v>35.659761598708101</v>
+        <v>17.390447187576999</v>
       </c>
       <c r="E27" s="3">
-        <v>9.4976545834315225</v>
+        <v>3.1711411261754479</v>
       </c>
       <c r="F27" s="3">
-        <v>5.4312165075770169</v>
+        <v>2.2550466214231788</v>
       </c>
       <c r="G27">
-        <v>261.79791691015652</v>
+        <v>60.096565328479947</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1487,23 +1487,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>47.652399064768893</v>
-      </c>
-      <c r="C28" s="4">
-        <v>23.675378400347089</v>
-      </c>
-      <c r="D28" s="4">
-        <v>31.030182383064862</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4.8184601383725694</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.5038503214022656</v>
+      <c r="B28" s="3">
+        <v>32.346328880581737</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10.390728956484541</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6.411507745651293</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.6765653536119691</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.4967556655091672</v>
       </c>
       <c r="G28">
-        <v>112.68027030795569</v>
+        <v>55.321886601838713</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>20</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1525,23 +1525,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>18.040036227670001</v>
-      </c>
-      <c r="C29" s="4">
-        <v>46.406052018667012</v>
-      </c>
-      <c r="D29" s="4">
-        <v>18.678188724228949</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4.1654475453916042</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5.5767867500979289</v>
+      <c r="B29" s="3">
+        <v>85.158604490631063</v>
+      </c>
+      <c r="C29" s="3">
+        <v>17.65153890107695</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.0639940003448629</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.3745349397215367</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.5849556550062109</v>
       </c>
       <c r="G29">
-        <v>92.866511266055511</v>
+        <v>113.8336279867806</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>24</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1564,22 +1564,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>14.20465761840973</v>
+        <v>22.742066915105688</v>
       </c>
       <c r="C30" s="3">
-        <v>5.7923228198002308</v>
+        <v>12.347046364206561</v>
       </c>
       <c r="D30" s="3">
-        <v>5.2933295307290367</v>
+        <v>36.263742991154707</v>
       </c>
       <c r="E30" s="3">
-        <v>6.1771993424124609</v>
+        <v>9.5846228731881737</v>
       </c>
       <c r="F30" s="3">
-        <v>5.6405008941544104</v>
+        <v>3.0449749695510659</v>
       </c>
       <c r="G30">
-        <v>37.108010205505863</v>
+        <v>83.982454113206202</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1602,22 +1602,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>26.47596470587154</v>
+        <v>21.515005251863489</v>
       </c>
       <c r="C31" s="3">
-        <v>10.183412495948559</v>
+        <v>7.255831550735242</v>
       </c>
       <c r="D31" s="3">
-        <v>10.28804614271175</v>
+        <v>13.09636680575912</v>
       </c>
       <c r="E31" s="3">
-        <v>10.739355124671199</v>
+        <v>5.4698429005733598</v>
       </c>
       <c r="F31" s="3">
-        <v>5.7242221689278354</v>
+        <v>3.3145115030643781</v>
       </c>
       <c r="G31">
-        <v>63.411000638130893</v>
+        <v>50.651558011995597</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1640,22 +1640,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>18.13336235145713</v>
+        <v>34.56137759320103</v>
       </c>
       <c r="C32" s="3">
-        <v>44.099137000495901</v>
+        <v>14.01878518859516</v>
       </c>
       <c r="D32" s="3">
-        <v>25.03176878474838</v>
+        <v>11.644639249305801</v>
       </c>
       <c r="E32" s="3">
-        <v>12.36614291838846</v>
+        <v>4.0798304903645999</v>
       </c>
       <c r="F32" s="3">
-        <v>5.9706869927712614</v>
+        <v>3.5966438863464072</v>
       </c>
       <c r="G32">
-        <v>105.6010980478611</v>
+        <v>67.901276407812986</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1677,23 +1677,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>16.761593838906261</v>
-      </c>
-      <c r="C33" s="4">
-        <v>36.934497920327892</v>
-      </c>
-      <c r="D33" s="4">
-        <v>29.253545568080259</v>
-      </c>
-      <c r="E33" s="4">
-        <v>7.4497862898445426</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6.2491550074361459</v>
+      <c r="B33" s="3">
+        <v>9.9165021593867522</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.6289087079053717</v>
+      </c>
+      <c r="D33" s="3">
+        <v>14.14269798180972</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8.5012331309169191</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.6354393844863351</v>
       </c>
       <c r="G33">
-        <v>96.648578624595075</v>
+        <v>40.824781364505093</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>13</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>12</v>
@@ -1716,22 +1716,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>21.285463917083849</v>
+        <v>256.48442721149371</v>
       </c>
       <c r="C34" s="3">
-        <v>23.66681727617911</v>
+        <v>55.153414799175067</v>
       </c>
       <c r="D34" s="3">
-        <v>80.367539570473809</v>
+        <v>15.17508137375766</v>
       </c>
       <c r="E34" s="3">
-        <v>9.7973824334841915</v>
+        <v>6.9085209529379066</v>
       </c>
       <c r="F34" s="3">
-        <v>6.3957885094037099</v>
+        <v>3.9641233324522349</v>
       </c>
       <c r="G34">
-        <v>141.51299170662469</v>
+        <v>337.68556766981658</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1754,22 +1754,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>24.48681635399835</v>
+        <v>203.09248334509439</v>
       </c>
       <c r="C35" s="3">
-        <v>8.9827723777027071</v>
+        <v>8.1168008753453282</v>
       </c>
       <c r="D35" s="3">
-        <v>16.318410233041611</v>
+        <v>35.659761598708101</v>
       </c>
       <c r="E35" s="3">
-        <v>6.505931984973504</v>
+        <v>9.4976545834315225</v>
       </c>
       <c r="F35" s="3">
-        <v>6.4772360538844662</v>
+        <v>5.4312165075770169</v>
       </c>
       <c r="G35">
-        <v>62.771167003600631</v>
+        <v>261.79791691015652</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1792,22 +1792,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>170.75584393662831</v>
+        <v>14.20465761840973</v>
       </c>
       <c r="C36" s="3">
-        <v>41.753322310532603</v>
+        <v>5.7923228198002308</v>
       </c>
       <c r="D36" s="3">
-        <v>13.14503700065792</v>
+        <v>5.2933295307290367</v>
       </c>
       <c r="E36" s="3">
-        <v>8.514207744870177</v>
+        <v>6.1771993424124609</v>
       </c>
       <c r="F36" s="3">
-        <v>6.7195161810617359</v>
+        <v>5.6405008941544104</v>
       </c>
       <c r="G36">
-        <v>240.8879271737508</v>
+        <v>37.108010205505863</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1829,23 +1829,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>217.83327354159121</v>
-      </c>
-      <c r="C37" s="4">
-        <v>14.19289626770852</v>
-      </c>
-      <c r="D37" s="4">
-        <v>11.67421737145585</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8.7664231802713886</v>
-      </c>
-      <c r="F37" s="4">
-        <v>8.062339008791982</v>
+      <c r="B37" s="3">
+        <v>26.47596470587154</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10.183412495948559</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10.28804614271175</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10.739355124671199</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.7242221689278354</v>
       </c>
       <c r="G37">
-        <v>260.52914936981892</v>
+        <v>63.411000638130893</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1856,8 +1856,8 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="4">
-        <v>0</v>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
@@ -1868,22 +1868,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>52.830386627762188</v>
+        <v>18.13336235145713</v>
       </c>
       <c r="C38" s="3">
-        <v>5.7615086881455984</v>
+        <v>44.099137000495901</v>
       </c>
       <c r="D38" s="3">
-        <v>4.939837485113511</v>
+        <v>25.03176878474838</v>
       </c>
       <c r="E38" s="3">
-        <v>8.374184199251113</v>
+        <v>12.36614291838846</v>
       </c>
       <c r="F38" s="3">
-        <v>8.5437660833584204</v>
+        <v>5.9706869927712614</v>
       </c>
       <c r="G38">
-        <v>80.449683083630816</v>
+        <v>105.6010980478611</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1905,23 +1905,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>213.3521899589015</v>
-      </c>
-      <c r="C39" s="4">
-        <v>104.4585355140411</v>
-      </c>
-      <c r="D39" s="4">
-        <v>11.11100221559164</v>
-      </c>
-      <c r="E39" s="4">
-        <v>6.4851855201035331</v>
-      </c>
-      <c r="F39" s="4">
-        <v>8.57784665118829</v>
+      <c r="B39" s="3">
+        <v>21.285463917083849</v>
+      </c>
+      <c r="C39" s="3">
+        <v>23.66681727617911</v>
+      </c>
+      <c r="D39" s="3">
+        <v>80.367539570473809</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.7973824334841915</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6.3957885094037099</v>
       </c>
       <c r="G39">
-        <v>343.984759859826</v>
+        <v>141.51299170662469</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>9</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1944,22 +1944,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>14.571938773745689</v>
+        <v>24.48681635399835</v>
       </c>
       <c r="C40" s="3">
-        <v>6.5415824303350378</v>
+        <v>8.9827723777027071</v>
       </c>
       <c r="D40" s="3">
-        <v>6.4076405571070731</v>
+        <v>16.318410233041611</v>
       </c>
       <c r="E40" s="3">
-        <v>11.76884228849568</v>
+        <v>6.505931984973504</v>
       </c>
       <c r="F40" s="3">
-        <v>9.6937033275920115</v>
+        <v>6.4772360538844662</v>
       </c>
       <c r="G40">
-        <v>48.983707377275493</v>
+        <v>62.771167003600631</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>1616.4890513739981</v>
+        <v>170.75584393662831</v>
       </c>
       <c r="C41" s="3">
-        <v>279.88874153999728</v>
+        <v>41.753322310532603</v>
       </c>
       <c r="D41" s="3">
-        <v>40.511646025193137</v>
+        <v>13.14503700065792</v>
       </c>
       <c r="E41" s="3">
-        <v>22.176920626986689</v>
+        <v>8.514207744870177</v>
       </c>
       <c r="F41" s="3">
-        <v>13.09017264783922</v>
+        <v>6.7195161810617359</v>
       </c>
       <c r="G41">
-        <v>1972.1565322140141</v>
+        <v>240.8879271737508</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2019,23 +2019,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>17.53408841840232</v>
-      </c>
-      <c r="C42" s="4">
-        <v>40.611154434982041</v>
-      </c>
-      <c r="D42" s="4">
-        <v>22.665615505520961</v>
-      </c>
-      <c r="E42" s="4">
-        <v>9.5496540522597773</v>
-      </c>
-      <c r="F42" s="4">
-        <v>13.204969666219821</v>
+      <c r="B42" s="3">
+        <v>52.830386627762188</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5.7615086881455984</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4.939837485113511</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8.374184199251113</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.5437660833584204</v>
       </c>
       <c r="G42">
-        <v>103.5654820773849</v>
+        <v>80.449683083630816</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>6</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -2057,23 +2057,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>18.38945522608844</v>
-      </c>
-      <c r="C43" s="4">
-        <v>46.024821552352833</v>
-      </c>
-      <c r="D43" s="4">
-        <v>22.61379643229672</v>
-      </c>
-      <c r="E43" s="4">
-        <v>9.2596153075893675</v>
-      </c>
-      <c r="F43" s="4">
-        <v>14.105369130528571</v>
+      <c r="B43" s="3">
+        <v>14.571938773745689</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6.5415824303350378</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6.4076405571070731</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11.76884228849568</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9.6937033275920115</v>
       </c>
       <c r="G43">
-        <v>110.3930576488559</v>
+        <v>48.983707377275493</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>19</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>12</v>
@@ -2096,22 +2096,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>403.00527276670778</v>
+        <v>1616.4890513739981</v>
       </c>
       <c r="C44" s="3">
-        <v>83.743976283157323</v>
+        <v>279.88874153999728</v>
       </c>
       <c r="D44" s="3">
-        <v>34.245993720712917</v>
+        <v>40.511646025193137</v>
       </c>
       <c r="E44" s="3">
-        <v>15.90870511521865</v>
+        <v>22.176920626986689</v>
       </c>
       <c r="F44" s="3">
-        <v>14.45479603404244</v>
+        <v>13.09017264783922</v>
       </c>
       <c r="G44">
-        <v>551.35874391983907</v>
+        <v>1972.1565322140141</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2134,22 +2134,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>13.51848425915369</v>
+        <v>403.00527276670778</v>
       </c>
       <c r="C45" s="3">
-        <v>19.164797809624101</v>
+        <v>83.743976283157323</v>
       </c>
       <c r="D45" s="3">
-        <v>11.36178992293175</v>
+        <v>34.245993720712917</v>
       </c>
       <c r="E45" s="3">
-        <v>25.958915854912799</v>
+        <v>15.90870511521865</v>
       </c>
       <c r="F45" s="3">
-        <v>44.765129882228649</v>
+        <v>14.45479603404244</v>
       </c>
       <c r="G45">
-        <v>114.769117728851</v>
+        <v>551.35874391983907</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2171,23 +2171,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>6621.1684965510012</v>
-      </c>
-      <c r="C46" s="4">
-        <v>256.28628152110463</v>
-      </c>
-      <c r="D46" s="4">
-        <v>295.58096548823471</v>
-      </c>
-      <c r="E46" s="4">
-        <v>283.78510497621818</v>
-      </c>
-      <c r="F46" s="4">
-        <v>138.90220440971899</v>
+      <c r="B46" s="3">
+        <v>13.51848425915369</v>
+      </c>
+      <c r="C46" s="3">
+        <v>19.164797809624101</v>
+      </c>
+      <c r="D46" s="3">
+        <v>11.36178992293175</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25.958915854912799</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44.765129882228649</v>
       </c>
       <c r="G46">
-        <v>7595.7230529462804</v>
+        <v>114.769117728851</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2244,8 +2244,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
